--- a/data/formatted/basicdata201213.xlsx
+++ b/data/formatted/basicdata201213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CEA601-B397-47CA-B7FF-779687A81C9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C74C9-D244-45DF-B5FD-E0DFA8DEA086}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{A102A360-D8FB-4FAF-8FFF-7706B1D8481F}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{A102A360-D8FB-4FAF-8FFF-7706B1D8481F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201213.xlsx
+++ b/data/formatted/basicdata201213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4C74C9-D244-45DF-B5FD-E0DFA8DEA086}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EA107-CB01-4C5B-B005-1577EEB1D2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{A102A360-D8FB-4FAF-8FFF-7706B1D8481F}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{A102A360-D8FB-4FAF-8FFF-7706B1D8481F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata201213.xlsx
+++ b/data/formatted/basicdata201213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EA107-CB01-4C5B-B005-1577EEB1D2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE16205-3746-4069-A35E-B3397279F443}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{A102A360-D8FB-4FAF-8FFF-7706B1D8481F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A102A360-D8FB-4FAF-8FFF-7706B1D8481F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,208 +114,208 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Akron NCAA</t>
-  </si>
-  <si>
-    <t>Albany (NY) NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Belmont NCAA</t>
-  </si>
-  <si>
-    <t>Boise State NCAA</t>
-  </si>
-  <si>
-    <t>Bucknell NCAA</t>
-  </si>
-  <si>
-    <t>Butler NCAA</t>
-  </si>
-  <si>
-    <t>University of California NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Colorado State NCAA</t>
-  </si>
-  <si>
-    <t>Colorado NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Davidson NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Florida Gulf Coast NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>Georgetown NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Harvard NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Iona NCAA</t>
-  </si>
-  <si>
-    <t>Iowa State NCAA</t>
-  </si>
-  <si>
-    <t>James Madison NCAA</t>
-  </si>
-  <si>
-    <t>Kansas State NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>La Salle NCAA</t>
-  </si>
-  <si>
-    <t>Liberty NCAA</t>
-  </si>
-  <si>
-    <t>Long Island University NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Miami (FL) NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Middle Tennessee NCAA</t>
-  </si>
-  <si>
-    <t>Minnesota NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi NCAA</t>
-  </si>
-  <si>
-    <t>Missouri NCAA</t>
-  </si>
-  <si>
-    <t>Montana NCAA</t>
-  </si>
-  <si>
-    <t>Nevada-Las Vegas NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico State NCAA</t>
-  </si>
-  <si>
-    <t>New Mexico NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina A&amp;T NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Northwestern State NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Pacific NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Saint Louis NCAA</t>
-  </si>
-  <si>
-    <t>Saint Mary's (CA) NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>South Dakota State NCAA</t>
-  </si>
-  <si>
-    <t>Southern NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Temple NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Valparaiso NCAA</t>
-  </si>
-  <si>
-    <t>Villanova NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth NCAA</t>
-  </si>
-  <si>
-    <t>Western Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Wichita State NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Albany (NY)</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Boise State</t>
+  </si>
+  <si>
+    <t>Bucknell</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Colorado State</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Florida Gulf Coast</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Harvard</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>Kansas State</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>La Salle</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Long Island University</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Middle Tennessee</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nevada-Las Vegas</t>
+  </si>
+  <si>
+    <t>New Mexico State</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>North Carolina A&amp;T</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Northwestern State</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Saint Louis</t>
+  </si>
+  <si>
+    <t>Saint Mary's (CA)</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>South Dakota State</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Wichita State</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
